--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anindya.chatterjee\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -263,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -340,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1108,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Changes</t>
   </si>
@@ -235,6 +235,12 @@
 DASH
 ZAP
 Commercial</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>By Configure</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +697,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +752,9 @@
         <v>8</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
@@ -1049,7 +1060,9 @@
         <v>68</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
@@ -1067,7 +1080,9 @@
         <v>44</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
@@ -1121,7 +1136,9 @@
         <v>51</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
@@ -1157,7 +1174,9 @@
         <v>56</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
@@ -1193,7 +1212,9 @@
         <v>60</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
@@ -1211,7 +1232,9 @@
         <v>63</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
@@ -1229,7 +1252,9 @@
         <v>65</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>Changes</t>
   </si>
@@ -237,10 +237,19 @@
 Commercial</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>By Configure</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not understand</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -686,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +716,7 @@
     <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -753,7 +762,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -772,7 +781,9 @@
         <v>10</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
@@ -790,7 +801,9 @@
         <v>12</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
@@ -808,7 +821,9 @@
         <v>14</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
@@ -826,7 +841,9 @@
         <v>16</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
@@ -1024,7 +1041,9 @@
         <v>39</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
@@ -1042,7 +1061,9 @@
         <v>41</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
@@ -1061,7 +1082,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1081,7 +1102,7 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1100,7 +1121,9 @@
         <v>46</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
@@ -1118,7 +1141,9 @@
         <v>49</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
@@ -1137,7 +1162,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1156,7 +1181,9 @@
         <v>53</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
@@ -1175,7 +1202,7 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1194,7 +1221,9 @@
         <v>58</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
@@ -1213,7 +1242,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1233,7 +1262,7 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1253,7 +1282,7 @@
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -695,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,7 +706,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Changes</t>
   </si>
@@ -695,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1023,7 +1023,9 @@
         <v>36</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Changes</t>
   </si>
@@ -695,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +915,9 @@
         <v>23</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>

--- a/C21_Tracker.xlsx
+++ b/C21_Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Changes</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Ranjan</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -356,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,6 +431,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +785,9 @@
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>70</v>
       </c>
@@ -780,7 +807,9 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
@@ -791,17 +820,17 @@
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="7"/>
@@ -820,7 +849,9 @@
       <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" s="8" t="s">
         <v>70</v>
       </c>
@@ -840,7 +871,9 @@
       <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>70</v>
       </c>
@@ -934,8 +967,12 @@
       <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
@@ -1024,7 +1061,9 @@
       <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="8" t="s">
         <v>70</v>
       </c>
@@ -1044,7 +1083,9 @@
       <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F17" s="8" t="s">
         <v>70</v>
       </c>
@@ -1064,7 +1105,9 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F18" s="8" t="s">
         <v>70</v>
       </c>
@@ -1104,7 +1147,9 @@
       <c r="D20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="8" t="s">
         <v>70</v>
       </c>
@@ -1115,17 +1160,17 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="7"/>
@@ -1135,17 +1180,17 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="7"/>
@@ -1164,7 +1209,9 @@
       <c r="D23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F23" s="8" t="s">
         <v>70</v>
       </c>
@@ -1184,7 +1231,9 @@
       <c r="D24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" s="8" t="s">
         <v>70</v>
       </c>
@@ -1204,7 +1253,9 @@
       <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F25" s="8" t="s">
         <v>70</v>
       </c>
@@ -1215,17 +1266,17 @@
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="7"/>
@@ -1244,7 +1295,9 @@
       <c r="D27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" s="8" t="s">
         <v>70</v>
       </c>
@@ -1264,7 +1317,9 @@
       <c r="D28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F28" s="8" t="s">
         <v>70</v>
       </c>
@@ -1284,7 +1339,9 @@
       <c r="D29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="F29" s="8" t="s">
         <v>70</v>
       </c>
